--- a/math_proficiency_high_schools_small_district_size_only.xlsx
+++ b/math_proficiency_high_schools_small_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># Math Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,11 @@
       <c r="Q2" t="n">
         <v>4</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,6 +659,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,6 +729,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -779,6 +799,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +869,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,6 +939,11 @@
       <c r="Q7" t="n">
         <v>1</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -974,6 +1009,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1039,6 +1079,11 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,6 +1149,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1169,6 +1219,11 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1289,11 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1299,6 +1359,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1364,6 +1429,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1429,6 +1499,11 @@
       <c r="Q15" t="n">
         <v>2</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1569,11 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,6 +1639,11 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1624,6 +1709,11 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1779,11 @@
       <c r="Q19" t="n">
         <v>1</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1754,6 +1849,11 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1819,6 +1919,11 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1884,6 +1989,11 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1949,6 +2059,11 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2014,6 +2129,11 @@
       <c r="Q24" t="n">
         <v>4</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2079,6 +2199,11 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2269,11 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2209,6 +2339,11 @@
       <c r="Q27" t="n">
         <v>1</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2274,6 +2409,11 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2339,6 +2479,11 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2404,6 +2549,11 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2469,6 +2619,11 @@
       <c r="Q31" t="n">
         <v>2</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2534,6 +2689,11 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2599,6 +2759,11 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2664,6 +2829,11 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2729,6 +2899,11 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2794,6 +2969,11 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2859,6 +3039,11 @@
       <c r="Q37" t="n">
         <v>5</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2924,6 +3109,11 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2989,6 +3179,11 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3054,6 +3249,11 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3119,6 +3319,11 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3184,6 +3389,11 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3249,6 +3459,11 @@
       <c r="Q43" t="n">
         <v>3</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3314,6 +3529,11 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3379,6 +3599,11 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3444,6 +3669,11 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3509,6 +3739,11 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3574,6 +3809,11 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3639,6 +3879,11 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3704,6 +3949,11 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3769,6 +4019,11 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3834,6 +4089,11 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3899,6 +4159,11 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3964,6 +4229,11 @@
       <c r="Q54" t="n">
         <v>2</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4029,6 +4299,11 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4094,6 +4369,11 @@
       <c r="Q56" t="n">
         <v>2</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4159,6 +4439,11 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4224,6 +4509,11 @@
       <c r="Q58" t="n">
         <v>1</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4289,6 +4579,11 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4354,6 +4649,11 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4419,6 +4719,11 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4484,6 +4789,11 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4549,6 +4859,11 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4614,6 +4929,11 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4679,6 +4999,11 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4744,6 +5069,11 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4809,6 +5139,11 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4874,6 +5209,11 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4939,6 +5279,11 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5004,6 +5349,11 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5069,6 +5419,11 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5134,6 +5489,11 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5199,6 +5559,11 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5264,6 +5629,11 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5329,6 +5699,11 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5394,6 +5769,11 @@
       <c r="Q76" t="n">
         <v>2</v>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5459,6 +5839,11 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5524,6 +5909,11 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5589,6 +5979,11 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5654,6 +6049,11 @@
       <c r="Q80" t="n">
         <v>1</v>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5719,6 +6119,11 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5784,6 +6189,11 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5849,6 +6259,11 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5914,6 +6329,11 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5979,6 +6399,11 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6044,6 +6469,11 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6109,6 +6539,11 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6174,6 +6609,11 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6239,6 +6679,11 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6304,6 +6749,11 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6369,6 +6819,11 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6434,6 +6889,11 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6499,6 +6959,11 @@
       <c r="Q93" t="n">
         <v>1</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6564,6 +7029,11 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6629,6 +7099,11 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6694,6 +7169,11 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6759,6 +7239,11 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6824,6 +7309,11 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6889,6 +7379,11 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6954,6 +7449,11 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7019,6 +7519,11 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7084,6 +7589,11 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7149,6 +7659,11 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7214,6 +7729,11 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7279,6 +7799,11 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7344,6 +7869,11 @@
       <c r="Q106" t="n">
         <v>2</v>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7409,6 +7939,11 @@
       <c r="Q107" t="n">
         <v>1</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7474,6 +8009,11 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7539,6 +8079,11 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7604,6 +8149,11 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7669,6 +8219,11 @@
       <c r="Q111" t="n">
         <v>1</v>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7733,6 +8288,11 @@
       </c>
       <c r="Q112" t="n">
         <v>0</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
       </c>
     </row>
   </sheetData>
